--- a/functional_scenarios/atomic_blocks.xlsx
+++ b/functional_scenarios/atomic_blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Embry Riddle\One Drive\Embry-Riddle Aeronautical University\Akbas Research - Documents\General\Projects\Foretellix\Accidents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\xlsx2tex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D755813B-1C66-4991-8B32-C18DB1D67D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228EC4C-86B6-445F-B18E-59B061DBA5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="-14190" windowWidth="21600" windowHeight="11385" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1S) Edges" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="(3MP) 5-way Intersection-w-Pd" sheetId="14" r:id="rId13"/>
     <sheet name="Key" sheetId="3" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="276">
   <si>
     <t>ID</t>
   </si>
@@ -874,13 +874,25 @@
   </si>
   <si>
     <t>5 way Intersection</t>
+  </si>
+  <si>
+    <t>NPC1.Lane</t>
+  </si>
+  <si>
+    <t>NPC1.Distance</t>
+  </si>
+  <si>
+    <t>NPC1.Acceleration</t>
+  </si>
+  <si>
+    <t>DUT.Lane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,6 +1050,12 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1780,29 +1798,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1955,30 +1973,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2244,29 +2262,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2475,29 +2493,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2639,29 +2657,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2766,30 +2784,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2852,20 +2870,10 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2875,6 +2883,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="1"/>
@@ -2882,6 +2893,13 @@
         <top style="medium">
           <color theme="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2898,15 +2916,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4135657D-4BFE-4926-8784-69046B31C8E0}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0" headerRowBorderDxfId="93" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4135657D-4BFE-4926-8784-69046B31C8E0}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0" headerRowBorderDxfId="94" tableBorderDxfId="93">
   <autoFilter ref="A1:H25" xr:uid="{94BC3B23-32FB-48E9-BC7C-486CB778E33F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BD1961A0-961D-4944-8E99-41CDDB2E1556}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E5C1CC3B-7582-4795-84EE-0AD1F09ECC1A}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{295FC5F7-8FBB-487E-8EE3-76B36FA9AD2B}" name="lane (CAR2)"/>
-    <tableColumn id="4" xr3:uid="{5D2DAE2A-D866-4DDA-8399-2D8DC324A90D}" name="position (CAR2)"/>
-    <tableColumn id="5" xr3:uid="{442E7C19-642E-436B-8BB5-058519467302}" name="accel. (CAR2)" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{4CDC65E4-A515-433B-993B-4297666BABC6}" name="lane (DUT)"/>
+    <tableColumn id="3" xr3:uid="{295FC5F7-8FBB-487E-8EE3-76B36FA9AD2B}" name="NPC1.Lane"/>
+    <tableColumn id="4" xr3:uid="{5D2DAE2A-D866-4DDA-8399-2D8DC324A90D}" name="NPC1.Distance"/>
+    <tableColumn id="5" xr3:uid="{442E7C19-642E-436B-8BB5-058519467302}" name="NPC1.Acceleration" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{4CDC65E4-A515-433B-993B-4297666BABC6}" name="DUT.Lane"/>
     <tableColumn id="8" xr3:uid="{FEF7A40D-0533-42E1-A88C-0F545CF46B5C}" name="Reverse?"/>
     <tableColumn id="7" xr3:uid="{FC7F61F2-3EB4-4212-9EF1-98027AA0C78D}" name="Note"/>
   </tableColumns>
@@ -2915,7 +2933,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2EC1697-22B6-4BC2-BF72-2E8C06487613}" name="Table3" displayName="Table3" ref="A1:J17" totalsRowShown="0" headerRowBorderDxfId="90" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2EC1697-22B6-4BC2-BF72-2E8C06487613}" name="Table3" displayName="Table3" ref="A1:J17" totalsRowShown="0" headerRowBorderDxfId="91" tableBorderDxfId="90">
   <autoFilter ref="A1:J17" xr:uid="{48F2E536-2070-49B3-A393-5160DDE6E9D6}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F777AE4A-7B05-4809-82E4-A9DD211871AD}" name="ID"/>
@@ -2951,7 +2969,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFFA47CF-7050-1042-988A-97EF09D9E762}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFFA47CF-7050-1042-988A-97EF09D9E762}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <autoFilter ref="A1:E2" xr:uid="{2EFCBBDF-8509-FE40-8F82-33C908986358}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A191FB06-F4D0-A04A-A5F1-F666276311B8}" name="ID" dataDxfId="78"/>
@@ -2965,7 +2983,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D889457C-301E-3F42-99DB-FAA928FFC1FA}" name="Table9" displayName="Table9" ref="A1:G2" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D889457C-301E-3F42-99DB-FAA928FFC1FA}" name="Table9" displayName="Table9" ref="A1:G2" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="A1:G2" xr:uid="{E9C02C18-F408-D948-BCB8-7930E3A72EA4}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{155CFBC4-7C33-624D-BD14-D2AB62D96E27}" name="ID" dataDxfId="68"/>
@@ -2981,7 +2999,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E5FF8A2-777E-AB41-A03C-4A4A4D2EDD16}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E5FF8A2-777E-AB41-A03C-4A4A4D2EDD16}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:K2" xr:uid="{2E63B603-4ADB-C745-A900-2178BC350908}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DDB41271-37B3-6F42-952F-4E550BA22BE0}" name="ID" dataDxfId="56"/>
@@ -3001,7 +3019,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7F2870-98B0-3140-AD7B-8665DBFD6CA9}" name="Table10" displayName="Table10" ref="A1:M7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7F2870-98B0-3140-AD7B-8665DBFD6CA9}" name="Table10" displayName="Table10" ref="A1:M7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A1:M7" xr:uid="{E4961C86-6FB3-684E-963A-2B606F09B859}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{C991A867-356F-3644-97F7-8D23087A243A}" name="ID" dataDxfId="40"/>
@@ -3023,7 +3041,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC930E04-6E07-0E49-9601-E28FC5D8735D}" name="Table5" displayName="Table5" ref="A1:H3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC930E04-6E07-0E49-9601-E28FC5D8735D}" name="Table5" displayName="Table5" ref="A1:H3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:H3" xr:uid="{36090C8C-DFDD-5348-8D2C-BC06ECAF7A2C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A889A05E-F87A-2A40-8D3D-C3A606B6FD6A}" name="ID" dataDxfId="22"/>
@@ -3040,7 +3058,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9DA943E7-D025-7542-A6D8-E8534EB5AB64}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9DA943E7-D025-7542-A6D8-E8534EB5AB64}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J2" xr:uid="{4776D0A7-3399-7042-90C8-59372CCC15AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{68C67524-7E77-8145-968D-1A8246C010EE}" name="ID" dataDxfId="9"/>
@@ -3323,23 +3341,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="26" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3347,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="G1" s="84" t="s">
         <v>6</v>
@@ -3365,7 +3383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25">
+    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
@@ -3387,7 +3405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
@@ -3407,7 +3425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>18</v>
       </c>
@@ -3427,7 +3445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25">
+    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A5" s="103" t="s">
         <v>23</v>
       </c>
@@ -3445,7 +3463,7 @@
       <c r="G5" s="109"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="6" spans="1:8" ht="29.25">
+    <row r="6" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>26</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.25">
+    <row r="7" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>29</v>
       </c>
@@ -3489,7 +3507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.25">
+    <row r="8" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>33</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>35</v>
       </c>
@@ -3531,7 +3549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>37</v>
       </c>
@@ -3548,7 +3566,7 @@
       </c>
       <c r="G10" s="87"/>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3581,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="29.25">
+    <row r="12" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>45</v>
       </c>
@@ -3581,7 +3599,7 @@
       <c r="G12" s="66"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>47</v>
       </c>
@@ -3596,7 +3614,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>50</v>
       </c>
@@ -3614,7 +3632,7 @@
       <c r="G14" s="67"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>54</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>56</v>
       </c>
@@ -3654,7 +3672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3669,7 +3687,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>63</v>
       </c>
@@ -3691,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>66</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>70</v>
       </c>
@@ -3733,7 +3751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>74</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>77</v>
       </c>
@@ -3773,7 +3791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3793,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
         <v>84</v>
       </c>
@@ -3815,7 +3833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
         <v>88</v>
       </c>
@@ -3838,6 +3856,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3853,7 +3872,7 @@
       <selection activeCell="D17" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -3866,7 +3885,7 @@
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3920,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="75">
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>206</v>
       </c>
@@ -3952,7 +3971,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
@@ -3967,7 +3986,7 @@
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.95" customHeight="1">
+    <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="63.95" customHeight="1">
+    <row r="2" spans="1:13" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>223</v>
       </c>
@@ -4043,7 +4062,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>223</v>
       </c>
@@ -4074,7 +4093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60">
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
         <v>231</v>
       </c>
@@ -4103,7 +4122,7 @@
       <c r="L4" s="133"/>
       <c r="M4" s="133"/>
     </row>
-    <row r="5" spans="1:13" ht="60">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
         <v>236</v>
       </c>
@@ -4136,7 +4155,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
         <v>236</v>
       </c>
@@ -4167,7 +4186,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="146" customFormat="1" ht="60">
+    <row r="7" spans="1:13" s="146" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="139" t="s">
         <v>223</v>
       </c>
@@ -4196,7 +4215,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K8" s="136"/>
       <c r="L8" s="136"/>
     </row>
@@ -4216,7 +4235,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -4225,7 +4244,7 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>244</v>
       </c>
@@ -4277,7 +4296,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>250</v>
       </c>
@@ -4317,7 +4336,7 @@
       <selection activeCell="F13" sqref="F3:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
@@ -4328,7 +4347,7 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4379,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66" customHeight="1">
+    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>255</v>
       </c>
@@ -4408,7 +4427,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -4417,7 +4436,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>260</v>
       </c>
@@ -4425,7 +4444,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -4437,7 +4456,7 @@
       </c>
       <c r="E3" s="147"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>264</v>
       </c>
@@ -4448,7 +4467,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -4456,7 +4475,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>1</v>
       </c>
@@ -4464,7 +4483,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>264</v>
       </c>
@@ -4472,7 +4491,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="127" t="s">
         <v>268</v>
       </c>
@@ -4480,7 +4499,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>4</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="126" t="s">
         <v>270</v>
       </c>
@@ -4509,7 +4528,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
@@ -4523,7 +4542,7 @@
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -4555,7 +4574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -4569,7 +4588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -4583,7 +4602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -4606,7 +4625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1">
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -4633,7 +4652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4653,7 +4672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4667,7 +4686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -4687,7 +4706,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -4698,7 +4717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -4712,7 +4731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>120</v>
       </c>
@@ -4738,7 +4757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -4749,7 +4768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>120</v>
       </c>
@@ -4775,7 +4794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>120</v>
       </c>
@@ -4801,7 +4820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4824,7 +4843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -4844,7 +4863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4880,7 +4899,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4894,7 +4913,7 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4932,7 +4951,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -4981,7 +5000,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
@@ -4992,7 +5011,7 @@
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -5048,7 +5067,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
@@ -5064,7 +5083,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" thickBot="1">
+    <row r="1" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5105,7 +5124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -5141,7 +5160,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" style="15" customWidth="1"/>
@@ -5153,7 +5172,7 @@
     <col min="8" max="8" width="13.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1">
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5179,7 +5198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>163</v>
       </c>
@@ -5199,7 +5218,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>168</v>
       </c>
@@ -5217,7 +5236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>163</v>
       </c>
@@ -5237,7 +5256,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>168</v>
       </c>
@@ -5259,7 +5278,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>168</v>
       </c>
@@ -5277,7 +5296,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>163</v>
       </c>
@@ -5313,7 +5332,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -5325,7 +5344,7 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" thickBot="1">
+    <row r="1" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5360,7 +5379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -5390,7 +5409,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
@@ -5402,7 +5421,7 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
@@ -5419,7 +5438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1">
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="128" t="s">
         <v>186</v>
       </c>
@@ -5452,7 +5471,7 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
@@ -5461,7 +5480,7 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -5484,7 +5503,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62.1" customHeight="1">
+    <row r="2" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>194</v>
       </c>
@@ -5742,13 +5761,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6352138-94E6-4006-A3A1-D79F276E2A77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6352138-94E6-4006-A3A1-D79F276E2A77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EE5297-04EB-4C34-AA22-C1F63E596189}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EE5297-04EB-4C34-AA22-C1F63E596189}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41427505-FAFF-4BEE-B442-0F9294662C13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41427505-FAFF-4BEE-B442-0F9294662C13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="760962ba-41a6-4c22-8823-37e7800d07f7"/>
+    <ds:schemaRef ds:uri="908bafe6-243f-4184-9c59-db357c8fa058"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/functional_scenarios/atomic_blocks.xlsx
+++ b/functional_scenarios/atomic_blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\xlsx2tex\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yaroona/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228EC4C-86B6-445F-B18E-59B061DBA5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF22A7-0B0B-3A4B-B101-C71A2B56FD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="-14190" windowWidth="21600" windowHeight="11385" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="835" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1S) Edges" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -55,18 +55,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>lane (CAR2)</t>
-  </si>
-  <si>
-    <t>position (CAR2)</t>
-  </si>
-  <si>
-    <t>accel. (CAR2)</t>
-  </si>
-  <si>
-    <t>lane (DUT)</t>
-  </si>
-  <si>
     <t>Reverse?</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
     <t>1S1</t>
   </si>
   <si>
-    <t>CAR2 acceralerates in the lane on DUT's right side until it is ahead of the DUT.</t>
-  </si>
-  <si>
     <t>right of DUT</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
   </si>
   <si>
     <t>1S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR2 is in the lane on the DUT's right side when it cuts into DUT's lane. CAR2 may or may not accelerate. </t>
   </si>
   <si>
     <t>right of DUT @start,
@@ -107,9 +89,6 @@
     <t>1S3</t>
   </si>
   <si>
-    <t>CAR2 is ahead of DUT in DUT's lane</t>
-  </si>
-  <si>
     <t>same as DUT</t>
   </si>
   <si>
@@ -122,28 +101,15 @@
     <t>1S4</t>
   </si>
   <si>
-    <t>CAR2 is ahead of, and in the same lane as DUT, when CAR2 changes lanes</t>
-  </si>
-  <si>
-    <t>same as DUT @start,
-side of CAR2 @end</t>
-  </si>
-  <si>
     <t>1S5</t>
   </si>
   <si>
-    <t>CAR2 is ahead of, in the same lane as the DUT, when CAR2 brakes</t>
-  </si>
-  <si>
     <t>neg</t>
   </si>
   <si>
     <t>1S6</t>
   </si>
   <si>
-    <t>CAR2 is behind, and in the same lane as DUT when CAR2 breaks</t>
-  </si>
-  <si>
     <t>behind DUT @start</t>
   </si>
   <si>
@@ -153,31 +119,16 @@
     <t>1S7</t>
   </si>
   <si>
-    <t>CAR2 is behind, and in the same lans as DUT when CAR2 accelerates</t>
-  </si>
-  <si>
     <t>1S8</t>
   </si>
   <si>
-    <t>CAR2 is behind, and in the same lane as DUT</t>
-  </si>
-  <si>
     <t>1S9</t>
   </si>
   <si>
-    <t>CAR2 and DUT change into the right lane</t>
-  </si>
-  <si>
-    <t>right of CAR2 @end</t>
-  </si>
-  <si>
     <t>right of DUT @end</t>
   </si>
   <si>
     <t>1S10</t>
-  </si>
-  <si>
-    <t>CAR2 is in lane 1 while DUT changes from lane 3 to lane 2.</t>
   </si>
   <si>
     <t>lane 1</t>
@@ -190,13 +141,7 @@
     <t>1S11</t>
   </si>
   <si>
-    <t>CAR2 changes lanes to the right. May or may not accelerate.</t>
-  </si>
-  <si>
     <t>1S12</t>
-  </si>
-  <si>
-    <t>CAR2 is behind, and to the left of the DUT, when CAR2 changes into the DUTs lane</t>
   </si>
   <si>
     <t>left of DUT @start
@@ -206,25 +151,13 @@
     <t>1S13</t>
   </si>
   <si>
-    <t>CAR2 changes lanes to the left. May or may not accelerate.</t>
-  </si>
-  <si>
-    <t>left of CAR2 @end</t>
-  </si>
-  <si>
     <t>Pos</t>
   </si>
   <si>
     <t>1S14</t>
   </si>
   <si>
-    <t>CAR2 is to the left of DUT, when CAR2 accelerates (or not) and changes into DUT's lane</t>
-  </si>
-  <si>
     <t>1S15</t>
-  </si>
-  <si>
-    <t>CAR2 is behind and in the same lane as DUT, when CAR2 changes lanes to the right of the DUT</t>
   </si>
   <si>
     <t>same as DUT @start,
@@ -237,9 +170,6 @@
     <t>1S16</t>
   </si>
   <si>
-    <t>CAR2 is behind and the lane to the right of DUT, when CAR2 changes lanes to the left of DUT</t>
-  </si>
-  <si>
     <t>right of DUT @start.
 left of DUT @end</t>
   </si>
@@ -247,16 +177,10 @@
     <t>1S17</t>
   </si>
   <si>
-    <t>CAR2 accelerates in the lane on the DUT's left side until it is ahead of the DUT</t>
-  </si>
-  <si>
     <t>left of DUT</t>
   </si>
   <si>
     <t>1S18</t>
-  </si>
-  <si>
-    <t>CAR2 is on the side of, and ahead of the DUT, when CAR2 changes into DUT's lane. CAR2 may or may not accelerate.</t>
   </si>
   <si>
     <t>side of DUT @start,
@@ -269,9 +193,6 @@
     <t>1S19</t>
   </si>
   <si>
-    <t>CAR2 accelerate until it is ahead of DUT</t>
-  </si>
-  <si>
     <t>side of DUT</t>
   </si>
   <si>
@@ -279,9 +200,6 @@
   </si>
   <si>
     <t>1S20</t>
-  </si>
-  <si>
-    <t>CAR2 is behind and in the same lane as DUT, when CAR2 changes lanes to the left of the DUT</t>
   </si>
   <si>
     <t>same as DUT@start,
@@ -291,9 +209,6 @@
     <t>1S21</t>
   </si>
   <si>
-    <t>CAR2 is behind and in the same lane as DUT, when CAR2 changes lane to the side of DUT</t>
-  </si>
-  <si>
     <t>same as DUT@start,
 side of DUT @end</t>
   </si>
@@ -304,18 +219,12 @@
     <t>1S22</t>
   </si>
   <si>
-    <t>CAR2 is ahead of and in the same lane as DUT, when CAR2 reverses.</t>
-  </si>
-  <si>
     <t>same as DUT@start</t>
   </si>
   <si>
     <t>1S23</t>
   </si>
   <si>
-    <t>CAR 2 is ahead of DUT when CAR2 accelerates or brakes</t>
-  </si>
-  <si>
     <t>[neg,pos]</t>
   </si>
   <si>
@@ -325,27 +234,12 @@
     <t>1S24</t>
   </si>
   <si>
-    <t>CAR2 is behind, and in the same lane as DUT when CAR2 accelerates or brakes</t>
-  </si>
-  <si>
     <t>same as DUT @start</t>
   </si>
   <si>
     <t>General form of 1S6, 1S7, and 1S8</t>
   </si>
   <si>
-    <t>Stopped (CAR2)</t>
-  </si>
-  <si>
-    <t>lane (CAR3)</t>
-  </si>
-  <si>
-    <t>position (CAR3)</t>
-  </si>
-  <si>
-    <t>Accel (CAR3)</t>
-  </si>
-  <si>
     <t>2S1</t>
   </si>
   <si>
@@ -355,64 +249,34 @@
     <t>2S2</t>
   </si>
   <si>
-    <t>right of CAR2</t>
-  </si>
-  <si>
     <t>2S3</t>
   </si>
   <si>
-    <t>CAR2 and CAR3 are in the same lane as DUT. CAR2 is ahead of DUT. CAR3 is behind DUT and accelerating.</t>
-  </si>
-  <si>
     <t>ahead of DUT</t>
   </si>
   <si>
     <t>2S4</t>
   </si>
   <si>
-    <t>CAR2 and CAR3 are in the same lane as DUT. CAR2 is behind DUT, and CAR3 is behind CAR2. CAR2 and CAR3 accelerate or brake.</t>
-  </si>
-  <si>
-    <t>behind CAR2</t>
-  </si>
-  <si>
     <t>2S5</t>
   </si>
   <si>
-    <t>CAR2 and CAR3 are in the same lane as DUT, when CAR3 changes lanes to the right of DUT.</t>
-  </si>
-  <si>
     <t>2S6</t>
   </si>
   <si>
-    <t>CAR3 is in the lane to the right of DUT, and moves ahead of DUT.</t>
-  </si>
-  <si>
     <t>2S7</t>
-  </si>
-  <si>
-    <t>CAR2 and CAR3 are in the same lane as DUT. CAR2 is behind DUT, and CAR3 is behind CAR2. CAR2 changes to the lane on the right od DUT.</t>
   </si>
   <si>
     <t>same as DUT @start,
 right of DUT@end</t>
   </si>
   <si>
-    <t>behind CAR2 @start</t>
-  </si>
-  <si>
     <t>2S8</t>
   </si>
   <si>
-    <t>CAR2 drives ahead of DUT</t>
-  </si>
-  <si>
     <t>2S9</t>
   </si>
   <si>
-    <t>CAR2 changes into DUT's lane, and CAR3 changes into the lane left of DUT</t>
-  </si>
-  <si>
     <t>same as DUT @end</t>
   </si>
   <si>
@@ -420,9 +284,6 @@
   </si>
   <si>
     <t>2S13</t>
-  </si>
-  <si>
-    <t>CAR2 is left of DUT. CAR3 is in the same lane and behind DUT. CAR2 changes into DUT's lane and CAR3 accelerates.</t>
   </si>
   <si>
     <t>left of DUT @start,
@@ -435,30 +296,15 @@
     <t>2S11</t>
   </si>
   <si>
-    <t>CAR3 accelerates</t>
-  </si>
-  <si>
-    <t>CAR2 is right of DUT. CAR3 is in the same lane and behind DUT. CAR2 changes into DUT's lane and CAR3 accelerates.</t>
-  </si>
-  <si>
-    <t>CAR2 is on the side of DUT. CAR3 is in the same lane and behind DUT. CAR2 changes into DUT's lane and CAR3 accelerates.</t>
-  </si>
-  <si>
     <t>General case of S10 and S11</t>
   </si>
   <si>
     <t>2S14</t>
   </si>
   <si>
-    <t>CAR2 and CAR3 are in the same lane as DUT. CAR2 is ahead of DUT and stopped. CAR3 is behind DUT. DUT is in lane 3.</t>
-  </si>
-  <si>
     <t>2S15</t>
   </si>
   <si>
-    <t>CAR3 changes into lane 1 and accelerataes.</t>
-  </si>
-  <si>
     <t>lane 3</t>
   </si>
   <si>
@@ -468,78 +314,24 @@
     <t>2S16</t>
   </si>
   <si>
-    <t>CAR3 changes into DUT's lane</t>
-  </si>
-  <si>
-    <t>lane (CAR4)</t>
-  </si>
-  <si>
-    <t>position (CAR4)</t>
-  </si>
-  <si>
-    <t>Accel (CAR4)</t>
-  </si>
-  <si>
-    <t>Keep Speed (CAR4)</t>
-  </si>
-  <si>
     <t>3S1</t>
   </si>
   <si>
-    <t>CAR2, CAR3, and CAR4 are in the same lane as DUT. CAR3 is ahead of DUT, CAR2 is ahead of CAR3. CAR4 is behind DUT. CAR2 and CAR3 brake while CAR4 keeps speed.</t>
-  </si>
-  <si>
-    <t>ahead of CAR3</t>
-  </si>
-  <si>
     <t>neg @end</t>
   </si>
   <si>
-    <t>Edge From (CAR2)</t>
-  </si>
-  <si>
-    <t>Direction of Crossing (CAR2)</t>
-  </si>
-  <si>
-    <t>Approach Time (CAR2)</t>
-  </si>
-  <si>
-    <t>Accel. (CAR2)</t>
-  </si>
-  <si>
-    <t>Direction of Crossing (DUT)</t>
-  </si>
-  <si>
     <t>1T1</t>
   </si>
   <si>
-    <t>CAR2 is on the edge to the right of DUT, crossing the intersection while braking. DUT is crossing the intersection.</t>
-  </si>
-  <si>
     <t>[right,left]</t>
   </si>
   <si>
     <t>straight</t>
   </si>
   <si>
-    <t>Edge From (CAR3)</t>
-  </si>
-  <si>
-    <t>Direction of Crossing (CAR3)</t>
-  </si>
-  <si>
-    <t>Approach Time (CAR3)</t>
-  </si>
-  <si>
-    <t>Accel. (CAR3)</t>
-  </si>
-  <si>
     <t>2T1</t>
   </si>
   <si>
-    <t>CAR2 is behind, and in the same lane as DUT, when CAR2 accelerates. CAR3 is at the same intersection as DUT and crosses the intersection to the forwards edge.</t>
-  </si>
-  <si>
     <t>Left of DUT</t>
   </si>
   <si>
@@ -552,9 +344,6 @@
     <t>1X6</t>
   </si>
   <si>
-    <t>CAR2 approaches the same intersection as DUT, on the edges to the right or left of the DUT.</t>
-  </si>
-  <si>
     <t>[Right,Left] of DUT</t>
   </si>
   <si>
@@ -567,36 +356,21 @@
     <t>1X5</t>
   </si>
   <si>
-    <t>CAR2 is at the same intersection as DUT and crosses the intersection to the forwards edge.</t>
-  </si>
-  <si>
     <t>Specific case of 1X5</t>
   </si>
   <si>
-    <t>CAR2 approaches the same intersection as DUT on the edge opposite the DUT</t>
-  </si>
-  <si>
     <t>Opposite of DUT</t>
   </si>
   <si>
-    <t>CAR2 is braking, and crossing the same intersection as DUT, while DUT is turning Left.</t>
-  </si>
-  <si>
     <t>Left</t>
   </si>
   <si>
-    <t>CAR2 traverses the intersection at the same time as DUT. May or may not accelerate or break.</t>
-  </si>
-  <si>
     <t>[right,left,straight]</t>
   </si>
   <si>
     <t>General case of 1X2 and 1X4</t>
   </si>
   <si>
-    <t>CAR2 approaches the intersection at the same time as DUT.</t>
-  </si>
-  <si>
     <t>[Right, Left, Straight] of Dut</t>
   </si>
   <si>
@@ -606,15 +380,6 @@
     <t>2X1</t>
   </si>
   <si>
-    <t>CAR2 accelerates. CAR3 is at the same intersection as DUT and crosses the intersection to the forwards edge.</t>
-  </si>
-  <si>
-    <t>Position (PED1)</t>
-  </si>
-  <si>
-    <t>Speed (DUT)</t>
-  </si>
-  <si>
     <t>Recognition of Pedestrian</t>
   </si>
   <si>
@@ -633,21 +398,9 @@
     <t>false-as a bike</t>
   </si>
   <si>
-    <t>Position (CAR2)</t>
-  </si>
-  <si>
-    <t>Direction (CAR2)</t>
-  </si>
-  <si>
-    <t>Speed (CAR2)</t>
-  </si>
-  <si>
     <t>2SP1</t>
   </si>
   <si>
-    <t>DUT stopped for pedestrians to cross, CAR2 damages rear bumper and left sensor after turning left onto DUT's lane</t>
-  </si>
-  <si>
     <t>turning onto DUT's lane, behind DUT</t>
   </si>
   <si>
@@ -663,27 +416,12 @@
     <t>0mph @start</t>
   </si>
   <si>
-    <t>Position (CAR3)</t>
-  </si>
-  <si>
-    <t>Position (DUT)</t>
-  </si>
-  <si>
-    <t>Direction (CAR3)</t>
-  </si>
-  <si>
-    <t>Speed (CAR3)</t>
-  </si>
-  <si>
     <t>Recognition of PED</t>
   </si>
   <si>
     <t>3TP1</t>
   </si>
   <si>
-    <t>On a 3 lane road, CAR 2 stopped for PED1 to cross and DUT was braking. CAR3 was switching lanes and collides with DUT on lane 2</t>
-  </si>
-  <si>
     <t>lane 3- right of DUT</t>
   </si>
   <si>
@@ -708,27 +446,9 @@
     <t>5mph @end</t>
   </si>
   <si>
-    <t>Position(CAR2)</t>
-  </si>
-  <si>
-    <t>Position(PED1)</t>
-  </si>
-  <si>
-    <t>Position (PED2)</t>
-  </si>
-  <si>
-    <t>Direction (PED2)</t>
-  </si>
-  <si>
-    <t>Direction (DUT)</t>
-  </si>
-  <si>
     <t>DUT Accelerating</t>
   </si>
   <si>
-    <t>CAR2 Accelerating</t>
-  </si>
-  <si>
     <t>2XP2</t>
   </si>
   <si>
@@ -744,9 +464,6 @@
     <t>General case of 2XP2</t>
   </si>
   <si>
-    <t>DUT stopped at a green light waiting for PED1 to cross, when CAR2 collided with the left side bumper of DUT</t>
-  </si>
-  <si>
     <t>4mph</t>
   </si>
   <si>
@@ -771,33 +488,18 @@
     <t>2XP4</t>
   </si>
   <si>
-    <t>DUT decelrates at a green light after noticing PED1 on the phone. CAR2 rear ends DUT as DUT was deccelerating</t>
-  </si>
-  <si>
     <t>specific case of 2XP4</t>
   </si>
   <si>
-    <t>As the DUT started deccelerating because of a pedestrian crossing on the crosswalk, CAR2 collides with the DUT's back bumper</t>
-  </si>
-  <si>
     <t>[left, straight]</t>
   </si>
   <si>
     <t>general case of 2XP2</t>
   </si>
   <si>
-    <t xml:space="preserve">DUT stopped at a green light getting ready to make a right turn and waiting for pedestrians to cross. CAR2 rearends the DUT. </t>
-  </si>
-  <si>
-    <t>Position (Pds)</t>
-  </si>
-  <si>
     <t>3XP1</t>
   </si>
   <si>
-    <t>DUT driving, wanting to turn onto street. Recognizes two pedestrians crossing on crosswalk then stops. CAR2 collies with DUT's back bumper</t>
-  </si>
-  <si>
     <t>crossing on crosswalk</t>
   </si>
   <si>
@@ -813,18 +515,12 @@
     <t>3XP2</t>
   </si>
   <si>
-    <t>DUT stopped and waiting for pedestrians to cross. CAR2 comes fro behind and colides with the DUT's rear bumper</t>
-  </si>
-  <si>
     <t>4mph @end</t>
   </si>
   <si>
     <t xml:space="preserve">general case of 3XP1 </t>
   </si>
   <si>
-    <t>Direction (PED1)</t>
-  </si>
-  <si>
     <t>3MP1</t>
   </si>
   <si>
@@ -885,7 +581,308 @@
     <t>NPC1.Acceleration</t>
   </si>
   <si>
-    <t>DUT.Lane</t>
+    <t>NPC1 acceralerates in the lane on DUT's right side until it is ahead of the DUT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPC1 is in the lane on the DUT's right side when it cuts into DUT's lane. NPC1 may or may not accelerate. </t>
+  </si>
+  <si>
+    <t>NPC1 is ahead of DUT in DUT's lane</t>
+  </si>
+  <si>
+    <t>NPC1 is ahead of, and in the same lane as DUT, when NPC1 changes lanes</t>
+  </si>
+  <si>
+    <t>same as DUT @start,
+side of NPC1 @end</t>
+  </si>
+  <si>
+    <t>NPC1 is ahead of, in the same lane as the DUT, when NPC1 brakes</t>
+  </si>
+  <si>
+    <t>NPC1 is behind, and in the same lane as DUT when NPC1 breaks</t>
+  </si>
+  <si>
+    <t>NPC1 is behind, and in the same lans as DUT when NPC1 accelerates</t>
+  </si>
+  <si>
+    <t>NPC1 is behind, and in the same lane as DUT</t>
+  </si>
+  <si>
+    <t>NPC1 and DUT change into the right lane</t>
+  </si>
+  <si>
+    <t>right of NPC1 @end</t>
+  </si>
+  <si>
+    <t>NPC1 is in lane 1 while DUT changes from lane 3 to lane 2.</t>
+  </si>
+  <si>
+    <t>NPC1 changes lanes to the right. May or may not accelerate.</t>
+  </si>
+  <si>
+    <t>NPC1 is behind, and to the left of the DUT, when NPC1 changes into the DUTs lane</t>
+  </si>
+  <si>
+    <t>NPC1 changes lanes to the left. May or may not accelerate.</t>
+  </si>
+  <si>
+    <t>left of NPC1 @end</t>
+  </si>
+  <si>
+    <t>NPC1 is to the left of DUT, when NPC1 accelerates (or not) and changes into DUT's lane</t>
+  </si>
+  <si>
+    <t>NPC1 is behind and in the same lane as DUT, when NPC1 changes lanes to the right of the DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is behind and the lane to the right of DUT, when NPC1 changes lanes to the left of DUT</t>
+  </si>
+  <si>
+    <t>NPC1 accelerates in the lane on the DUT's left side until it is ahead of the DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is on the side of, and ahead of the DUT, when NPC1 changes into DUT's lane. NPC1 may or may not accelerate.</t>
+  </si>
+  <si>
+    <t>NPC1 accelerate until it is ahead of DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is behind and in the same lane as DUT, when NPC1 changes lanes to the left of the DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is behind and in the same lane as DUT, when NPC1 changes lane to the side of DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is ahead of and in the same lane as DUT, when NPC1 reverses.</t>
+  </si>
+  <si>
+    <t>CAR 2 is ahead of DUT when NPC1 accelerates or brakes</t>
+  </si>
+  <si>
+    <t>NPC1 is behind, and in the same lane as DUT when NPC1 accelerates or brakes</t>
+  </si>
+  <si>
+    <t>right of NPC1</t>
+  </si>
+  <si>
+    <t>behind NPC1</t>
+  </si>
+  <si>
+    <t>behind NPC1 @start</t>
+  </si>
+  <si>
+    <t>NPC1 drives ahead of DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is on the edge to the right of DUT, crossing the intersection while braking. DUT is crossing the intersection.</t>
+  </si>
+  <si>
+    <t>NPC1 approaches the same intersection as DUT, on the edges to the right or left of the DUT.</t>
+  </si>
+  <si>
+    <t>NPC1 is at the same intersection as DUT and crosses the intersection to the forwards edge.</t>
+  </si>
+  <si>
+    <t>NPC1 approaches the same intersection as DUT on the edge opposite the DUT</t>
+  </si>
+  <si>
+    <t>NPC1 is braking, and crossing the same intersection as DUT, while DUT is turning Left.</t>
+  </si>
+  <si>
+    <t>NPC1 traverses the intersection at the same time as DUT. May or may not accelerate or break.</t>
+  </si>
+  <si>
+    <t>NPC1 approaches the intersection at the same time as DUT.</t>
+  </si>
+  <si>
+    <t>DUT stopped for pedestrians to cross, NPC1 damages rear bumper and left sensor after turning left onto DUT's lane</t>
+  </si>
+  <si>
+    <t>NPC1 Accelerating</t>
+  </si>
+  <si>
+    <t>DUT stopped at a green light waiting for PED1 to cross, when NPC1 collided with the left side bumper of DUT</t>
+  </si>
+  <si>
+    <t>DUT decelrates at a green light after noticing PED1 on the phone. NPC1 rear ends DUT as DUT was deccelerating</t>
+  </si>
+  <si>
+    <t>As the DUT started deccelerating because of a pedestrian crossing on the crosswalk, NPC1 collides with the DUT's back bumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUT stopped at a green light getting ready to make a right turn and waiting for pedestrians to cross. NPC1 rearends the DUT. </t>
+  </si>
+  <si>
+    <t>DUT driving, wanting to turn onto street. Recognizes two pedestrians crossing on crosswalk then stops. NPC1 collies with DUT's back bumper</t>
+  </si>
+  <si>
+    <t>DUT stopped and waiting for pedestrians to cross. NPC1 comes fro behind and colides with the DUT's rear bumper</t>
+  </si>
+  <si>
+    <t>NPC2 and NPC2 are in the same lane as DUT. NPC2 is ahead of DUT. NPC2 is behind DUT and accelerating.</t>
+  </si>
+  <si>
+    <t>NPC2 and NPC2 are in the same lane as DUT. NPC2 is behind DUT, and NPC2 is behind NPC2. NPC2 and NPC2 accelerate or brake.</t>
+  </si>
+  <si>
+    <t>NPC2 and NPC2 are in the same lane as DUT, when NPC2 changes lanes to the right of DUT.</t>
+  </si>
+  <si>
+    <t>NPC2 is in the lane to the right of DUT, and moves ahead of DUT.</t>
+  </si>
+  <si>
+    <t>NPC2 and NPC2 are in the same lane as DUT. NPC2 is behind DUT, and NPC2 is behind NPC2. NPC2 changes to the lane on the right od DUT.</t>
+  </si>
+  <si>
+    <t>NPC2 changes into DUT's lane, and NPC2 changes into the lane left of DUT</t>
+  </si>
+  <si>
+    <t>NPC2 is left of DUT. NPC2 is in the same lane and behind DUT. NPC2 changes into DUT's lane and NPC2 accelerates.</t>
+  </si>
+  <si>
+    <t>NPC2 accelerates</t>
+  </si>
+  <si>
+    <t>NPC2 is right of DUT. NPC2 is in the same lane and behind DUT. NPC2 changes into DUT's lane and NPC2 accelerates.</t>
+  </si>
+  <si>
+    <t>NPC2 is on the side of DUT. NPC2 is in the same lane and behind DUT. NPC2 changes into DUT's lane and NPC2 accelerates.</t>
+  </si>
+  <si>
+    <t>NPC1 and NPC2 are in the same lane as DUT. NPC1 is ahead of DUT and stopped. NPC2 is behind DUT. DUT is in lane 3.</t>
+  </si>
+  <si>
+    <t>NPC2 changes into lane 1 and accelerataes.</t>
+  </si>
+  <si>
+    <t>NPC2 changes into DUT's lane</t>
+  </si>
+  <si>
+    <t>ahead of NPC2</t>
+  </si>
+  <si>
+    <t>NPC1 is behind, and in the same lane as DUT, when NPC1 accelerates. NPC2 is at the same intersection as DUT and crosses the intersection to the forwards edge.</t>
+  </si>
+  <si>
+    <t>NPC1 accelerates. NPC2 is at the same intersection as DUT and crosses the intersection to the forwards edge.</t>
+  </si>
+  <si>
+    <t>On a 3 lane road, CAR 2 stopped for PED1 to cross and DUT was braking. NPC2 was switching lanes and collides with DUT on lane 2</t>
+  </si>
+  <si>
+    <t>NPC1, NPC2, and NPC3 are in the same lane as DUT. NPC2 is ahead of DUT, NPC1 is ahead of NPC2. NPC3 is behind DUT. NPC1 and NPC2 brake while NPC3 keeps speed.</t>
+  </si>
+  <si>
+    <t>NPC2.Lane</t>
+  </si>
+  <si>
+    <t>NPC3.Lane</t>
+  </si>
+  <si>
+    <t>NPC1.Position</t>
+  </si>
+  <si>
+    <t>NPC2.Position</t>
+  </si>
+  <si>
+    <t>NPC3.Position</t>
+  </si>
+  <si>
+    <t>NPC2.Acceleration</t>
+  </si>
+  <si>
+    <t>NPC1.Stopped</t>
+  </si>
+  <si>
+    <t>Dut.Lane</t>
+  </si>
+  <si>
+    <t>NPC3.KeepSpeed</t>
+  </si>
+  <si>
+    <t>NPC1.EdgeFrom</t>
+  </si>
+  <si>
+    <t>NPC2.EdgeFrom</t>
+  </si>
+  <si>
+    <t>NPC1.DirectionOfCrossing</t>
+  </si>
+  <si>
+    <t>NPC2.DirectionOfCrossing</t>
+  </si>
+  <si>
+    <t>NPC1.ApproachTime</t>
+  </si>
+  <si>
+    <t>DUT.DirectionOfCrossing</t>
+  </si>
+  <si>
+    <t>PED1.Position</t>
+  </si>
+  <si>
+    <t>PED2.Position</t>
+  </si>
+  <si>
+    <t>DUT.Speed</t>
+  </si>
+  <si>
+    <t>NPC1.Direction</t>
+  </si>
+  <si>
+    <t>NPC2.Direction</t>
+  </si>
+  <si>
+    <t>NPC1.Speed</t>
+  </si>
+  <si>
+    <t>NPC2.Speed</t>
+  </si>
+  <si>
+    <t>DUT.Position</t>
+  </si>
+  <si>
+    <t>PED2.Direction</t>
+  </si>
+  <si>
+    <t>PED1.Direction</t>
+  </si>
+  <si>
+    <t>DUT.Direction</t>
+  </si>
+  <si>
+    <t>PED.Position</t>
+  </si>
+  <si>
+    <t>DUT.Lane2</t>
+  </si>
+  <si>
+    <t>2S10</t>
+  </si>
+  <si>
+    <t>2S12</t>
+  </si>
+  <si>
+    <t>1X1</t>
+  </si>
+  <si>
+    <t>1X2</t>
+  </si>
+  <si>
+    <t>1X3</t>
+  </si>
+  <si>
+    <t>1X4</t>
+  </si>
+  <si>
+    <t>2XP1</t>
+  </si>
+  <si>
+    <t>2XP5</t>
+  </si>
+  <si>
+    <t>2XP6</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1243,17 +1240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1283,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,7 +1321,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,10 +1526,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1556,13 +1540,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1572,38 +1556,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
+  <dxfs count="96">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1628,10 +1639,10 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1640,14 +1651,18 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1659,6 +1674,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1695,6 +1716,205 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.249977111117893"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1858,21 +2078,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2322,7 +2527,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2350,23 +2557,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2382,57 +2572,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2548,23 +2687,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2580,23 +2702,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2691,40 +2796,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2916,15 +2987,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4135657D-4BFE-4926-8784-69046B31C8E0}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0" headerRowBorderDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4135657D-4BFE-4926-8784-69046B31C8E0}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0" headerRowBorderDxfId="95" tableBorderDxfId="94">
   <autoFilter ref="A1:H25" xr:uid="{94BC3B23-32FB-48E9-BC7C-486CB778E33F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BD1961A0-961D-4944-8E99-41CDDB2E1556}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E5C1CC3B-7582-4795-84EE-0AD1F09ECC1A}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{295FC5F7-8FBB-487E-8EE3-76B36FA9AD2B}" name="NPC1.Lane"/>
+    <tableColumn id="3" xr3:uid="{295FC5F7-8FBB-487E-8EE3-76B36FA9AD2B}" name="DUT.Lane2" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{5D2DAE2A-D866-4DDA-8399-2D8DC324A90D}" name="NPC1.Distance"/>
-    <tableColumn id="5" xr3:uid="{442E7C19-642E-436B-8BB5-058519467302}" name="NPC1.Acceleration" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{4CDC65E4-A515-433B-993B-4297666BABC6}" name="DUT.Lane"/>
+    <tableColumn id="5" xr3:uid="{442E7C19-642E-436B-8BB5-058519467302}" name="NPC1.Acceleration" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{4CDC65E4-A515-433B-993B-4297666BABC6}" name="NPC1.Lane"/>
     <tableColumn id="8" xr3:uid="{FEF7A40D-0533-42E1-A88C-0F545CF46B5C}" name="Reverse?"/>
     <tableColumn id="7" xr3:uid="{FC7F61F2-3EB4-4212-9EF1-98027AA0C78D}" name="Note"/>
   </tableColumns>
@@ -2933,19 +3004,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2EC1697-22B6-4BC2-BF72-2E8C06487613}" name="Table3" displayName="Table3" ref="A1:J17" totalsRowShown="0" headerRowBorderDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2EC1697-22B6-4BC2-BF72-2E8C06487613}" name="Table3" displayName="Table3" ref="A1:J17" totalsRowShown="0" headerRowBorderDxfId="92" tableBorderDxfId="91">
   <autoFilter ref="A1:J17" xr:uid="{48F2E536-2070-49B3-A393-5160DDE6E9D6}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F777AE4A-7B05-4809-82E4-A9DD211871AD}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{6C1CF608-0318-4DFF-8327-8462277BAC3E}" name="Description" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{CFEC3E5D-59EA-4642-91CD-86269F8BBA7C}" name="lane (CAR2)"/>
-    <tableColumn id="4" xr3:uid="{F81859C2-6BF9-45A4-AB36-3E8A877B081E}" name="position (CAR2)"/>
-    <tableColumn id="5" xr3:uid="{7EC6FFB1-5933-4314-8609-B9797191E11B}" name="accel. (CAR2)" dataDxfId="88"/>
-    <tableColumn id="11" xr3:uid="{98358EC6-51B4-4AC3-94C4-62F946CF4DFD}" name="Stopped (CAR2)" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{723CB637-ED35-4D3B-9FEF-928FF1121D81}" name="lane (CAR3)"/>
-    <tableColumn id="7" xr3:uid="{AEA31C73-960D-4692-9227-97A3439B6FF7}" name="position (CAR3)"/>
-    <tableColumn id="8" xr3:uid="{09E95F00-2D0B-48A9-B09D-CA01499C92CA}" name="Accel (CAR3)" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{C3639F86-B8E2-4A94-82FB-FD452DEDCE99}" name="lane (DUT)"/>
+    <tableColumn id="2" xr3:uid="{6C1CF608-0318-4DFF-8327-8462277BAC3E}" name="Description" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{CFEC3E5D-59EA-4642-91CD-86269F8BBA7C}" name="Dut.Lane"/>
+    <tableColumn id="4" xr3:uid="{F81859C2-6BF9-45A4-AB36-3E8A877B081E}" name="NPC1.Position"/>
+    <tableColumn id="5" xr3:uid="{7EC6FFB1-5933-4314-8609-B9797191E11B}" name="NPC1.Acceleration" dataDxfId="89"/>
+    <tableColumn id="11" xr3:uid="{98358EC6-51B4-4AC3-94C4-62F946CF4DFD}" name="NPC1.Stopped" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{723CB637-ED35-4D3B-9FEF-928FF1121D81}" name="NPC1.Lane"/>
+    <tableColumn id="7" xr3:uid="{AEA31C73-960D-4692-9227-97A3439B6FF7}" name="NPC2.Position"/>
+    <tableColumn id="8" xr3:uid="{09E95F00-2D0B-48A9-B09D-CA01499C92CA}" name="NPC2.Acceleration" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{C3639F86-B8E2-4A94-82FB-FD452DEDCE99}" name="NPC2.Lane"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2957,120 +3028,120 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8D995503-1EFD-4927-9DD0-0F7835A9EA65}" name="ID"/>
     <tableColumn id="2" xr3:uid="{B3D5B9E8-B507-413B-B1EE-250306115394}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{6420C988-597D-4597-81BE-64A4227963D9}" name="Edge From (CAR2)"/>
-    <tableColumn id="4" xr3:uid="{9D68393D-173F-407B-90BE-9446BA9DB088}" name="Direction of Crossing (CAR2)"/>
-    <tableColumn id="5" xr3:uid="{04454EAA-EB56-4942-9DB0-93FBB82219A8}" name="Approach Time (CAR2)"/>
-    <tableColumn id="6" xr3:uid="{C44A9C5C-511E-443C-A46B-8FC96C10F9EA}" name="Accel. (CAR2)" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{107935C0-D7AF-4741-B3E0-94C432C4363D}" name="Directon of Crossing (DUT)"/>
-    <tableColumn id="8" xr3:uid="{854FA624-5676-4758-AF1A-F3D01D259B0F}" name="Note" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{6420C988-597D-4597-81BE-64A4227963D9}" name="Directon of Crossing (DUT)"/>
+    <tableColumn id="4" xr3:uid="{9D68393D-173F-407B-90BE-9446BA9DB088}" name="NPC1.DirectionOfCrossing"/>
+    <tableColumn id="5" xr3:uid="{04454EAA-EB56-4942-9DB0-93FBB82219A8}" name="NPC1.ApproachTime"/>
+    <tableColumn id="6" xr3:uid="{C44A9C5C-511E-443C-A46B-8FC96C10F9EA}" name="NPC1.Acceleration" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{107935C0-D7AF-4741-B3E0-94C432C4363D}" name="NPC1.EdgeFrom"/>
+    <tableColumn id="8" xr3:uid="{854FA624-5676-4758-AF1A-F3D01D259B0F}" name="Note" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFFA47CF-7050-1042-988A-97EF09D9E762}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFFA47CF-7050-1042-988A-97EF09D9E762}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81" totalsRowBorderDxfId="80">
   <autoFilter ref="A1:E2" xr:uid="{2EFCBBDF-8509-FE40-8F82-33C908986358}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A191FB06-F4D0-A04A-A5F1-F666276311B8}" name="ID" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{F1F4BD64-1991-1244-940B-2D598B33A44D}" name="Description" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{087B1421-EF22-C244-B7FE-A0433F3D8677}" name="Position (PED1)" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{09C84FD7-230F-4B44-9FFD-2FFA0D0CEF33}" name="Speed (DUT)" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{1301B352-76F5-7047-A80C-C3FD02D0B6EE}" name="Recognition of Pedestrian" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{A191FB06-F4D0-A04A-A5F1-F666276311B8}" name="ID" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{F1F4BD64-1991-1244-940B-2D598B33A44D}" name="Description" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{087B1421-EF22-C244-B7FE-A0433F3D8677}" name="DUT.Speed" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{09C84FD7-230F-4B44-9FFD-2FFA0D0CEF33}" name="PED1.Position" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{1301B352-76F5-7047-A80C-C3FD02D0B6EE}" name="Recognition of Pedestrian" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D889457C-301E-3F42-99DB-FAA928FFC1FA}" name="Table9" displayName="Table9" ref="A1:G2" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D889457C-301E-3F42-99DB-FAA928FFC1FA}" name="Table9" displayName="Table9" ref="A1:G2" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="A1:G2" xr:uid="{E9C02C18-F408-D948-BCB8-7930E3A72EA4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{155CFBC4-7C33-624D-BD14-D2AB62D96E27}" name="ID" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{ECC9D5E3-363C-A443-8167-703B9934C5A4}" name="Description" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{250EC38C-A131-F344-B8D7-CD4E63E9FC61}" name="Position (CAR2)" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{03A3B8CE-7D97-FB40-B310-34897CB8AF87}" name="Position (PED1)" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{FD224E69-7C5F-E14A-89F2-5CAEF58A0639}" name="Direction (CAR2)" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{9A7F84D7-EE25-7F4F-8402-D702A91A641C}" name="Speed (CAR2)" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{5C519F3C-71E7-8144-A849-2959E79FA049}" name="Speed (DUT)" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{155CFBC4-7C33-624D-BD14-D2AB62D96E27}" name="ID" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{ECC9D5E3-363C-A443-8167-703B9934C5A4}" name="Description" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{250EC38C-A131-F344-B8D7-CD4E63E9FC61}" name="DUT.Speed" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{03A3B8CE-7D97-FB40-B310-34897CB8AF87}" name="PED1.Position" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{FD224E69-7C5F-E14A-89F2-5CAEF58A0639}" name="NPC1.Direction" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{9A7F84D7-EE25-7F4F-8402-D702A91A641C}" name="NPC1.Speed" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{5C519F3C-71E7-8144-A849-2959E79FA049}" name="NPC1.Position" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E5FF8A2-777E-AB41-A03C-4A4A4D2EDD16}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E5FF8A2-777E-AB41-A03C-4A4A4D2EDD16}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:K2" xr:uid="{2E63B603-4ADB-C745-A900-2178BC350908}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DDB41271-37B3-6F42-952F-4E550BA22BE0}" name="ID" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{308F1E95-B2B1-6B42-8C99-E0E00CD0C57A}" name="Description" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{E7F6910E-95A6-C445-8C11-670F7D38F75D}" name="Position (CAR2)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{ECA019EB-E954-7D43-9D1A-2FD205AF66FE}" name="Position (CAR3)" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{9F5A9356-5ECA-1242-ACF2-FC21D46EA1FD}" name="Position (DUT)" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{3DA1FC27-7C3D-934B-A034-D76AEAD72F7E}" name="Position (PED1)" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{2213AADB-166C-1D41-9D77-6C32C3D8241F}" name="Direction (CAR3)" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{3BFD3995-7D95-AC45-9311-E95F9BDF3DD9}" name="Speed (CAR3)" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{ED2D168A-2BB5-4940-8939-C05614EEBD96}" name="Speed (CAR2)" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{78E63BB0-E320-2B44-BCED-B87FA8924964}" name="Speed (DUT)" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{49B378FF-B0A5-ED4C-AF14-7241C18CA53A}" name="Recognition of PED" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{DDB41271-37B3-6F42-952F-4E550BA22BE0}" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{308F1E95-B2B1-6B42-8C99-E0E00CD0C57A}" name="Description" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{E7F6910E-95A6-C445-8C11-670F7D38F75D}" name="DUT.Position" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{ECA019EB-E954-7D43-9D1A-2FD205AF66FE}" name="DUT.Speed" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{9F5A9356-5ECA-1242-ACF2-FC21D46EA1FD}" name="NPC2.Position" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3DA1FC27-7C3D-934B-A034-D76AEAD72F7E}" name="PED1.Position" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{2213AADB-166C-1D41-9D77-6C32C3D8241F}" name="NPC2.Direction" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{3BFD3995-7D95-AC45-9311-E95F9BDF3DD9}" name="NPC2.Speed" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{ED2D168A-2BB5-4940-8939-C05614EEBD96}" name="NPC1.Speed" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{78E63BB0-E320-2B44-BCED-B87FA8924964}" name="NPC1.Position" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{49B378FF-B0A5-ED4C-AF14-7241C18CA53A}" name="Recognition of PED" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7F2870-98B0-3140-AD7B-8665DBFD6CA9}" name="Table10" displayName="Table10" ref="A1:M7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7F2870-98B0-3140-AD7B-8665DBFD6CA9}" name="Table10" displayName="Table10" ref="A1:M7" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="A1:M7" xr:uid="{E4961C86-6FB3-684E-963A-2B606F09B859}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C991A867-356F-3644-97F7-8D23087A243A}" name="ID" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{9DA28121-B965-E34E-AE70-10523F42C5B5}" name="Description" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{F8EDE969-AB6A-9D43-9E01-892AEAECC9AE}" name="Position(CAR2)" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{A0867524-7F2A-2E47-AD82-346D218A64F9}" name="Position(PED1)" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{292CAB92-AFC3-654C-82A2-F8EFE3BF0F74}" name="Position (PED2)" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{52B41E90-DD72-C344-92FD-BE2C2B9E422A}" name="Direction (CAR2)" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{AA155CC6-141A-2F42-96A4-FAC25A5BC151}" name="Direction (PED2)" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{068DDFB7-E7B6-E343-9AA1-AFC1A1A2E9FC}" name="Direction (DUT)" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{3BC32E64-69BF-3446-97E4-C5E5BA16BB14}" name="Speed (CAR2)" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{EBB16715-3AEF-5D40-8804-7974A684D219}" name="Speed (DUT)" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{9D274828-FA63-0C46-97BD-C2188312C85C}" name="DUT Accelerating" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{AD1B4976-7B62-7D47-BF33-2B2A37BDC6DC}" name="CAR2 Accelerating" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{E198DBCB-85EA-684C-85B6-9689D9DAC1E2}" name="Note" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{C991A867-356F-3644-97F7-8D23087A243A}" name="ID" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{9DA28121-B965-E34E-AE70-10523F42C5B5}" name="Description" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{F8EDE969-AB6A-9D43-9E01-892AEAECC9AE}" name="DUT.Direction" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{A0867524-7F2A-2E47-AD82-346D218A64F9}" name="DUT.Speed" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{292CAB92-AFC3-654C-82A2-F8EFE3BF0F74}" name="DUT Accelerating" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{52B41E90-DD72-C344-92FD-BE2C2B9E422A}" name="NPC1.Direction" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{AA155CC6-141A-2F42-96A4-FAC25A5BC151}" name="PED2.Direction" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{068DDFB7-E7B6-E343-9AA1-AFC1A1A2E9FC}" name="NPC1.Position" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{3BC32E64-69BF-3446-97E4-C5E5BA16BB14}" name="NPC1.Speed" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{EBB16715-3AEF-5D40-8804-7974A684D219}" name="PED1.Position" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{9D274828-FA63-0C46-97BD-C2188312C85C}" name="PED2.Position" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{AD1B4976-7B62-7D47-BF33-2B2A37BDC6DC}" name="NPC1 Accelerating" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{E198DBCB-85EA-684C-85B6-9689D9DAC1E2}" name="Note" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC930E04-6E07-0E49-9601-E28FC5D8735D}" name="Table5" displayName="Table5" ref="A1:H3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC930E04-6E07-0E49-9601-E28FC5D8735D}" name="Table5" displayName="Table5" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A1:H3" xr:uid="{36090C8C-DFDD-5348-8D2C-BC06ECAF7A2C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A889A05E-F87A-2A40-8D3D-C3A606B6FD6A}" name="ID" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{4F2D6EA5-6AE3-224A-8027-F7314DE43ADD}" name="Description" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{F47EEA96-154C-4C48-9A91-46641F807B22}" name="Position (Pds)" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{BBA37298-002F-554A-AAC2-3564B7CB1249}" name="Position(CAR2)" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{600B6D97-B9AA-244F-AF35-9DE61E4CB2D9}" name="Speed (CAR2)" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{557C8DAA-6748-9C4A-AA0F-F75D78D38B0A}" name="Recognition of Pedestrian" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{BC102BED-0929-2D47-A18B-3BEB8F276152}" name="Speed (DUT)" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{BBCACC53-A944-274D-B9E3-9F67A9E7E0E8}" name="Note" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{A889A05E-F87A-2A40-8D3D-C3A606B6FD6A}" name="ID" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{4F2D6EA5-6AE3-224A-8027-F7314DE43ADD}" name="Description" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{F47EEA96-154C-4C48-9A91-46641F807B22}" name="DUT.Speed" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{BBA37298-002F-554A-AAC2-3564B7CB1249}" name="NPC1.Position" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{600B6D97-B9AA-244F-AF35-9DE61E4CB2D9}" name="NPC1.Speed" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{557C8DAA-6748-9C4A-AA0F-F75D78D38B0A}" name="Recognition of Pedestrian" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{BC102BED-0929-2D47-A18B-3BEB8F276152}" name="PED.Position" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BBCACC53-A944-274D-B9E3-9F67A9E7E0E8}" name="Note" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9DA943E7-D025-7542-A6D8-E8534EB5AB64}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9DA943E7-D025-7542-A6D8-E8534EB5AB64}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:J2" xr:uid="{4776D0A7-3399-7042-90C8-59372CCC15AD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{68C67524-7E77-8145-968D-1A8246C010EE}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{602152CF-4D8C-8649-A1C3-EE222168BF06}" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F0C2CD48-744B-F84A-BFF5-2726DE941CE7}" name="Position (PED1)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D4EDDAD4-9B67-864F-9DA8-B8B9E987E60B}" name="Position (CAR2)" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{A6C64043-400F-9E46-B71E-A9207D954B42}" name="Position (DUT)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{29C4B013-18DC-9940-924C-CDA50D8AA768}" name="Position (CAR3)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{90A7864F-C489-A64F-A289-0EC1D372143F}" name="Direction (PED1)" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BDF94365-F7B0-E244-9045-D70ED988AC3A}" name="Direction (CAR3)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{22EE5809-0054-CD4F-923F-0F31235CBC53}" name="Direction (DUT)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{88C6B66A-E016-C948-BFBD-20A0055727B2}" name="Speed (DUT)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{68C67524-7E77-8145-968D-1A8246C010EE}" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{602152CF-4D8C-8649-A1C3-EE222168BF06}" name="Description" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F0C2CD48-744B-F84A-BFF5-2726DE941CE7}" name="DUT.Position" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D4EDDAD4-9B67-864F-9DA8-B8B9E987E60B}" name="DUT.Direction" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A6C64043-400F-9E46-B71E-A9207D954B42}" name="DUT.Speed" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{29C4B013-18DC-9940-924C-CDA50D8AA768}" name="NPC2.Position" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{90A7864F-C489-A64F-A289-0EC1D372143F}" name="PED1.Direction" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{BDF94365-F7B0-E244-9045-D70ED988AC3A}" name="NPC2.Direction" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{22EE5809-0054-CD4F-923F-0F31235CBC53}" name="PED1.Position" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{88C6B66A-E016-C948-BFBD-20A0055727B2}" name="NPC1.Position" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3341,518 +3412,518 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>272</v>
+      <c r="C1" s="145" t="s">
+        <v>265</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="E2" s="51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="F2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="84"/>
+      <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="B3" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="G3" s="85"/>
+      <c r="H3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="52" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="54" t="s">
+      <c r="B4" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="G4" s="115"/>
+      <c r="H4" s="116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="107"/>
+      <c r="D5" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="E5" s="106"/>
+      <c r="F5" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A6" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="112" t="s">
+      <c r="F7" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="100"/>
+      <c r="H7" s="94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A8" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="E8" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B9" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="B10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A12" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="87"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="B18" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="B19" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G19" s="46"/>
+      <c r="H19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B20" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="G20" s="56"/>
+      <c r="H20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="17" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="B21" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B22" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="68" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="B23" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>12</v>
       </c>
       <c r="G23" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="120" t="s">
-        <v>91</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="117"/>
+      <c r="D24" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="119" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="94"/>
+      <c r="H25" s="119" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3869,89 +3940,89 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="D17" sqref="D3:D17"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="125" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="124" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="133" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="133" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="133" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="135" t="b">
+      <c r="C1" s="148" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="123" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="133" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3967,257 +4038,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956F084-83BC-054D-9900-7D01608849C0}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="133" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="133" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="133" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="138"/>
+      <c r="F2" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="138"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="132"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+    </row>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="C6" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="143" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="136" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="135" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="138" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="140" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="141"/>
-      <c r="L2" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="140" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="140" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="140" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="140" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="133" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="133" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="134" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="134"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-    </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="144" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="144" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="144" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="146" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
+      <c r="C7" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4232,92 +4304,92 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="125" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="139" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="140" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="140" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="142" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="140" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="140" t="s">
-        <v>253</v>
+      <c r="C1" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="123" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="137" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4332,83 +4404,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A0FB90-5508-464E-AD7A-421113AD7D59}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F3:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="135" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="135" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="H1" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="138" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="C1" s="153" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="133" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>225</v>
+      <c r="F1" s="133" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="133" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="133" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="153" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>89</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="133" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="133" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="134" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="135" t="s">
-        <v>259</v>
+        <v>158</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="149" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4427,92 +4501,92 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="147"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E3" s="144"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="12">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="127" t="s">
-        <v>268</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="125" t="s">
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="126" t="s">
-        <v>270</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="124" t="s">
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4525,362 +4599,362 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>2</v>
+      <c r="C1" s="145" t="s">
+        <v>245</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I11" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I14" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="44" t="s">
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="26" t="b">
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="68" t="b">
-        <v>1</v>
-      </c>
       <c r="G17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4893,27 +4967,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD55A3E-2865-48DE-8A1B-6168BFA77E62}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4921,69 +4995,65 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>144</v>
+        <v>233</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>144</v>
+        <v>65</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" t="b">
+        <v>62</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4994,64 +5064,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E0D69C-C985-466E-85B8-DA779709B14E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>145</v>
+      <c r="C1" s="31" t="s">
+        <v>252</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5061,29 +5127,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD2EFF4-7449-480D-9418-57DA8EC0B6EC}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5091,60 +5152,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>159</v>
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5157,163 +5200,163 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>145</v>
+      <c r="C1" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>147</v>
+        <v>249</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5326,74 +5369,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C839E-F434-470B-A61A-5207D53F9C72}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>145</v>
+      <c r="C1" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>161</v>
+        <v>235</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5406,53 +5427,53 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="131" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="129" t="s">
-        <v>190</v>
+      <c r="C1" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="127" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5468,62 +5489,62 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="124" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="133" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>200</v>
+      <c r="C1" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5535,21 +5556,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042106007ADEBB2479868B695CD03AA07" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbfd6615ae6f118adf35973df8fc3958">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="760962ba-41a6-4c22-8823-37e7800d07f7" xmlns:ns3="908bafe6-243f-4184-9c59-db357c8fa058" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aaef65b4368acfcf0b150a672790ec2" ns2:_="" ns3:_="">
     <xsd:import namespace="760962ba-41a6-4c22-8823-37e7800d07f7"/>
@@ -5760,24 +5766,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6352138-94E6-4006-A3A1-D79F276E2A77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EE5297-04EB-4C34-AA22-C1F63E596189}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41427505-FAFF-4BEE-B442-0F9294662C13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5794,4 +5798,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EE5297-04EB-4C34-AA22-C1F63E596189}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6352138-94E6-4006-A3A1-D79F276E2A77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/functional_scenarios/atomic_blocks.xlsx
+++ b/functional_scenarios/atomic_blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yaroona/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Foretellix\Files\workspace\AV_ValidationVerification\functional_scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF22A7-0B0B-3A4B-B101-C71A2B56FD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B06F86-1A4F-4AEE-93F0-881AFFB535C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="835" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="5655" windowWidth="21765" windowHeight="10545" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1S) Edges" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1642,6 +1641,82 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1718,9 +1793,646 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color theme="4" tint="-0.249977111117893"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1789,6 +2501,83 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1808,6 +2597,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1823,6 +2629,23 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1852,6 +2675,100 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1892,927 +2809,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2955,6 +2951,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2992,9 +2991,9 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BD1961A0-961D-4944-8E99-41CDDB2E1556}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E5C1CC3B-7582-4795-84EE-0AD1F09ECC1A}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{295FC5F7-8FBB-487E-8EE3-76B36FA9AD2B}" name="DUT.Lane2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{295FC5F7-8FBB-487E-8EE3-76B36FA9AD2B}" name="DUT.Lane2" dataDxfId="93"/>
     <tableColumn id="4" xr3:uid="{5D2DAE2A-D866-4DDA-8399-2D8DC324A90D}" name="NPC1.Distance"/>
-    <tableColumn id="5" xr3:uid="{442E7C19-642E-436B-8BB5-058519467302}" name="NPC1.Acceleration" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{442E7C19-642E-436B-8BB5-058519467302}" name="NPC1.Acceleration" dataDxfId="92"/>
     <tableColumn id="6" xr3:uid="{4CDC65E4-A515-433B-993B-4297666BABC6}" name="NPC1.Lane"/>
     <tableColumn id="8" xr3:uid="{FEF7A40D-0533-42E1-A88C-0F545CF46B5C}" name="Reverse?"/>
     <tableColumn id="7" xr3:uid="{FC7F61F2-3EB4-4212-9EF1-98027AA0C78D}" name="Note"/>
@@ -3004,18 +3003,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2EC1697-22B6-4BC2-BF72-2E8C06487613}" name="Table3" displayName="Table3" ref="A1:J17" totalsRowShown="0" headerRowBorderDxfId="92" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2EC1697-22B6-4BC2-BF72-2E8C06487613}" name="Table3" displayName="Table3" ref="A1:J17" totalsRowShown="0" headerRowBorderDxfId="91" tableBorderDxfId="90">
   <autoFilter ref="A1:J17" xr:uid="{48F2E536-2070-49B3-A393-5160DDE6E9D6}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F777AE4A-7B05-4809-82E4-A9DD211871AD}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{6C1CF608-0318-4DFF-8327-8462277BAC3E}" name="Description" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{6C1CF608-0318-4DFF-8327-8462277BAC3E}" name="Description" dataDxfId="89"/>
     <tableColumn id="3" xr3:uid="{CFEC3E5D-59EA-4642-91CD-86269F8BBA7C}" name="Dut.Lane"/>
     <tableColumn id="4" xr3:uid="{F81859C2-6BF9-45A4-AB36-3E8A877B081E}" name="NPC1.Position"/>
-    <tableColumn id="5" xr3:uid="{7EC6FFB1-5933-4314-8609-B9797191E11B}" name="NPC1.Acceleration" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{98358EC6-51B4-4AC3-94C4-62F946CF4DFD}" name="NPC1.Stopped" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{7EC6FFB1-5933-4314-8609-B9797191E11B}" name="NPC1.Acceleration" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{98358EC6-51B4-4AC3-94C4-62F946CF4DFD}" name="NPC1.Stopped" dataDxfId="87"/>
     <tableColumn id="6" xr3:uid="{723CB637-ED35-4D3B-9FEF-928FF1121D81}" name="NPC1.Lane"/>
     <tableColumn id="7" xr3:uid="{AEA31C73-960D-4692-9227-97A3439B6FF7}" name="NPC2.Position"/>
-    <tableColumn id="8" xr3:uid="{09E95F00-2D0B-48A9-B09D-CA01499C92CA}" name="NPC2.Acceleration" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{09E95F00-2D0B-48A9-B09D-CA01499C92CA}" name="NPC2.Acceleration" dataDxfId="86"/>
     <tableColumn id="9" xr3:uid="{C3639F86-B8E2-4A94-82FB-FD452DEDCE99}" name="NPC2.Lane"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3031,116 +3030,116 @@
     <tableColumn id="3" xr3:uid="{6420C988-597D-4597-81BE-64A4227963D9}" name="Directon of Crossing (DUT)"/>
     <tableColumn id="4" xr3:uid="{9D68393D-173F-407B-90BE-9446BA9DB088}" name="NPC1.DirectionOfCrossing"/>
     <tableColumn id="5" xr3:uid="{04454EAA-EB56-4942-9DB0-93FBB82219A8}" name="NPC1.ApproachTime"/>
-    <tableColumn id="6" xr3:uid="{C44A9C5C-511E-443C-A46B-8FC96C10F9EA}" name="NPC1.Acceleration" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{C44A9C5C-511E-443C-A46B-8FC96C10F9EA}" name="NPC1.Acceleration" dataDxfId="85"/>
     <tableColumn id="7" xr3:uid="{107935C0-D7AF-4741-B3E0-94C432C4363D}" name="NPC1.EdgeFrom"/>
-    <tableColumn id="8" xr3:uid="{854FA624-5676-4758-AF1A-F3D01D259B0F}" name="Note" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{854FA624-5676-4758-AF1A-F3D01D259B0F}" name="Note" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFFA47CF-7050-1042-988A-97EF09D9E762}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81" totalsRowBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFFA47CF-7050-1042-988A-97EF09D9E762}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <autoFilter ref="A1:E2" xr:uid="{2EFCBBDF-8509-FE40-8F82-33C908986358}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A191FB06-F4D0-A04A-A5F1-F666276311B8}" name="ID" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{F1F4BD64-1991-1244-940B-2D598B33A44D}" name="Description" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{087B1421-EF22-C244-B7FE-A0433F3D8677}" name="DUT.Speed" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{09C84FD7-230F-4B44-9FFD-2FFA0D0CEF33}" name="PED1.Position" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{1301B352-76F5-7047-A80C-C3FD02D0B6EE}" name="Recognition of Pedestrian" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{A191FB06-F4D0-A04A-A5F1-F666276311B8}" name="ID" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{F1F4BD64-1991-1244-940B-2D598B33A44D}" name="Description" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{087B1421-EF22-C244-B7FE-A0433F3D8677}" name="DUT.Speed" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{09C84FD7-230F-4B44-9FFD-2FFA0D0CEF33}" name="PED1.Position" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{1301B352-76F5-7047-A80C-C3FD02D0B6EE}" name="Recognition of Pedestrian" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D889457C-301E-3F42-99DB-FAA928FFC1FA}" name="Table9" displayName="Table9" ref="A1:G2" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D889457C-301E-3F42-99DB-FAA928FFC1FA}" name="Table9" displayName="Table9" ref="A1:G2" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="A1:G2" xr:uid="{E9C02C18-F408-D948-BCB8-7930E3A72EA4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{155CFBC4-7C33-624D-BD14-D2AB62D96E27}" name="ID" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{ECC9D5E3-363C-A443-8167-703B9934C5A4}" name="Description" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{250EC38C-A131-F344-B8D7-CD4E63E9FC61}" name="DUT.Speed" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{03A3B8CE-7D97-FB40-B310-34897CB8AF87}" name="PED1.Position" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{FD224E69-7C5F-E14A-89F2-5CAEF58A0639}" name="NPC1.Direction" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{9A7F84D7-EE25-7F4F-8402-D702A91A641C}" name="NPC1.Speed" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{5C519F3C-71E7-8144-A849-2959E79FA049}" name="NPC1.Position" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{155CFBC4-7C33-624D-BD14-D2AB62D96E27}" name="ID" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{ECC9D5E3-363C-A443-8167-703B9934C5A4}" name="Description" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{250EC38C-A131-F344-B8D7-CD4E63E9FC61}" name="DUT.Speed" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{03A3B8CE-7D97-FB40-B310-34897CB8AF87}" name="PED1.Position" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{FD224E69-7C5F-E14A-89F2-5CAEF58A0639}" name="NPC1.Direction" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{9A7F84D7-EE25-7F4F-8402-D702A91A641C}" name="NPC1.Speed" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{5C519F3C-71E7-8144-A849-2959E79FA049}" name="NPC1.Position" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E5FF8A2-777E-AB41-A03C-4A4A4D2EDD16}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E5FF8A2-777E-AB41-A03C-4A4A4D2EDD16}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:K2" xr:uid="{2E63B603-4ADB-C745-A900-2178BC350908}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DDB41271-37B3-6F42-952F-4E550BA22BE0}" name="ID" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{308F1E95-B2B1-6B42-8C99-E0E00CD0C57A}" name="Description" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{E7F6910E-95A6-C445-8C11-670F7D38F75D}" name="DUT.Position" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{ECA019EB-E954-7D43-9D1A-2FD205AF66FE}" name="DUT.Speed" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{9F5A9356-5ECA-1242-ACF2-FC21D46EA1FD}" name="NPC2.Position" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3DA1FC27-7C3D-934B-A034-D76AEAD72F7E}" name="PED1.Position" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{2213AADB-166C-1D41-9D77-6C32C3D8241F}" name="NPC2.Direction" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{3BFD3995-7D95-AC45-9311-E95F9BDF3DD9}" name="NPC2.Speed" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{ED2D168A-2BB5-4940-8939-C05614EEBD96}" name="NPC1.Speed" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{78E63BB0-E320-2B44-BCED-B87FA8924964}" name="NPC1.Position" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{49B378FF-B0A5-ED4C-AF14-7241C18CA53A}" name="Recognition of PED" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{DDB41271-37B3-6F42-952F-4E550BA22BE0}" name="ID" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{308F1E95-B2B1-6B42-8C99-E0E00CD0C57A}" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{E7F6910E-95A6-C445-8C11-670F7D38F75D}" name="DUT.Position" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{ECA019EB-E954-7D43-9D1A-2FD205AF66FE}" name="DUT.Speed" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{9F5A9356-5ECA-1242-ACF2-FC21D46EA1FD}" name="NPC2.Position" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{3DA1FC27-7C3D-934B-A034-D76AEAD72F7E}" name="PED1.Position" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{2213AADB-166C-1D41-9D77-6C32C3D8241F}" name="NPC2.Direction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{3BFD3995-7D95-AC45-9311-E95F9BDF3DD9}" name="NPC2.Speed" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{ED2D168A-2BB5-4940-8939-C05614EEBD96}" name="NPC1.Speed" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{78E63BB0-E320-2B44-BCED-B87FA8924964}" name="NPC1.Position" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{49B378FF-B0A5-ED4C-AF14-7241C18CA53A}" name="Recognition of PED" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7F2870-98B0-3140-AD7B-8665DBFD6CA9}" name="Table10" displayName="Table10" ref="A1:M7" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7F2870-98B0-3140-AD7B-8665DBFD6CA9}" name="Table10" displayName="Table10" ref="A1:M7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A1:M7" xr:uid="{E4961C86-6FB3-684E-963A-2B606F09B859}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C991A867-356F-3644-97F7-8D23087A243A}" name="ID" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{9DA28121-B965-E34E-AE70-10523F42C5B5}" name="Description" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{F8EDE969-AB6A-9D43-9E01-892AEAECC9AE}" name="DUT.Direction" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{A0867524-7F2A-2E47-AD82-346D218A64F9}" name="DUT.Speed" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{292CAB92-AFC3-654C-82A2-F8EFE3BF0F74}" name="DUT Accelerating" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{52B41E90-DD72-C344-92FD-BE2C2B9E422A}" name="NPC1.Direction" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{AA155CC6-141A-2F42-96A4-FAC25A5BC151}" name="PED2.Direction" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{068DDFB7-E7B6-E343-9AA1-AFC1A1A2E9FC}" name="NPC1.Position" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{3BC32E64-69BF-3446-97E4-C5E5BA16BB14}" name="NPC1.Speed" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{EBB16715-3AEF-5D40-8804-7974A684D219}" name="PED1.Position" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{9D274828-FA63-0C46-97BD-C2188312C85C}" name="PED2.Position" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{AD1B4976-7B62-7D47-BF33-2B2A37BDC6DC}" name="NPC1 Accelerating" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{E198DBCB-85EA-684C-85B6-9689D9DAC1E2}" name="Note" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{C991A867-356F-3644-97F7-8D23087A243A}" name="ID" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{9DA28121-B965-E34E-AE70-10523F42C5B5}" name="Description" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{F8EDE969-AB6A-9D43-9E01-892AEAECC9AE}" name="DUT.Direction" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{A0867524-7F2A-2E47-AD82-346D218A64F9}" name="DUT.Speed" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{292CAB92-AFC3-654C-82A2-F8EFE3BF0F74}" name="DUT Accelerating" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{52B41E90-DD72-C344-92FD-BE2C2B9E422A}" name="NPC1.Direction" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{AA155CC6-141A-2F42-96A4-FAC25A5BC151}" name="PED2.Direction" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{068DDFB7-E7B6-E343-9AA1-AFC1A1A2E9FC}" name="NPC1.Position" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{3BC32E64-69BF-3446-97E4-C5E5BA16BB14}" name="NPC1.Speed" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{EBB16715-3AEF-5D40-8804-7974A684D219}" name="PED1.Position" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{9D274828-FA63-0C46-97BD-C2188312C85C}" name="PED2.Position" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{AD1B4976-7B62-7D47-BF33-2B2A37BDC6DC}" name="NPC1 Accelerating" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{E198DBCB-85EA-684C-85B6-9689D9DAC1E2}" name="Note" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC930E04-6E07-0E49-9601-E28FC5D8735D}" name="Table5" displayName="Table5" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC930E04-6E07-0E49-9601-E28FC5D8735D}" name="Table5" displayName="Table5" ref="A1:H3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:H3" xr:uid="{36090C8C-DFDD-5348-8D2C-BC06ECAF7A2C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A889A05E-F87A-2A40-8D3D-C3A606B6FD6A}" name="ID" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{4F2D6EA5-6AE3-224A-8027-F7314DE43ADD}" name="Description" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{F47EEA96-154C-4C48-9A91-46641F807B22}" name="DUT.Speed" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{BBA37298-002F-554A-AAC2-3564B7CB1249}" name="NPC1.Position" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{600B6D97-B9AA-244F-AF35-9DE61E4CB2D9}" name="NPC1.Speed" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{557C8DAA-6748-9C4A-AA0F-F75D78D38B0A}" name="Recognition of Pedestrian" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{BC102BED-0929-2D47-A18B-3BEB8F276152}" name="PED.Position" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{BBCACC53-A944-274D-B9E3-9F67A9E7E0E8}" name="Note" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{A889A05E-F87A-2A40-8D3D-C3A606B6FD6A}" name="ID" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{4F2D6EA5-6AE3-224A-8027-F7314DE43ADD}" name="Description" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{F47EEA96-154C-4C48-9A91-46641F807B22}" name="DUT.Speed" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BBA37298-002F-554A-AAC2-3564B7CB1249}" name="NPC1.Position" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{600B6D97-B9AA-244F-AF35-9DE61E4CB2D9}" name="NPC1.Speed" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{557C8DAA-6748-9C4A-AA0F-F75D78D38B0A}" name="Recognition of Pedestrian" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{BC102BED-0929-2D47-A18B-3BEB8F276152}" name="PED.Position" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{BBCACC53-A944-274D-B9E3-9F67A9E7E0E8}" name="Note" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9DA943E7-D025-7542-A6D8-E8534EB5AB64}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9DA943E7-D025-7542-A6D8-E8534EB5AB64}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J2" xr:uid="{4776D0A7-3399-7042-90C8-59372CCC15AD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{68C67524-7E77-8145-968D-1A8246C010EE}" name="ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{602152CF-4D8C-8649-A1C3-EE222168BF06}" name="Description" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{F0C2CD48-744B-F84A-BFF5-2726DE941CE7}" name="DUT.Position" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D4EDDAD4-9B67-864F-9DA8-B8B9E987E60B}" name="DUT.Direction" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{A6C64043-400F-9E46-B71E-A9207D954B42}" name="DUT.Speed" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{29C4B013-18DC-9940-924C-CDA50D8AA768}" name="NPC2.Position" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{90A7864F-C489-A64F-A289-0EC1D372143F}" name="PED1.Direction" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{BDF94365-F7B0-E244-9045-D70ED988AC3A}" name="NPC2.Direction" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{22EE5809-0054-CD4F-923F-0F31235CBC53}" name="PED1.Position" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{68C67524-7E77-8145-968D-1A8246C010EE}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{602152CF-4D8C-8649-A1C3-EE222168BF06}" name="Description" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F0C2CD48-744B-F84A-BFF5-2726DE941CE7}" name="DUT.Position" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D4EDDAD4-9B67-864F-9DA8-B8B9E987E60B}" name="DUT.Direction" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{A6C64043-400F-9E46-B71E-A9207D954B42}" name="DUT.Speed" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{29C4B013-18DC-9940-924C-CDA50D8AA768}" name="NPC2.Position" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{90A7864F-C489-A64F-A289-0EC1D372143F}" name="PED1.Direction" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BDF94365-F7B0-E244-9045-D70ED988AC3A}" name="NPC2.Direction" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{22EE5809-0054-CD4F-923F-0F31235CBC53}" name="PED1.Position" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{88C6B66A-E016-C948-BFBD-20A0055727B2}" name="NPC1.Position" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3412,23 +3411,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
         <v>12</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>16</v>
       </c>
@@ -3534,7 +3533,7 @@
       <c r="G5" s="108"/>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>17</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>19</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>22</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>23</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3636,7 @@
       </c>
       <c r="G10" s="86"/>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
@@ -3652,7 +3651,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>29</v>
       </c>
@@ -3670,7 +3669,7 @@
       <c r="G12" s="65"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
@@ -3685,7 +3684,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>32</v>
       </c>
@@ -3703,7 +3702,7 @@
       <c r="G14" s="66"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>34</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3758,7 +3757,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>40</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>42</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>45</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
         <v>48</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>50</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="116" t="s">
         <v>55</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
         <v>58</v>
       </c>
@@ -3943,20 +3942,20 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
         <v>120</v>
       </c>
@@ -4042,23 +4041,23 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="136" t="s">
         <v>272</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
         <v>130</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="130" t="s">
         <v>137</v>
       </c>
@@ -4194,7 +4193,7 @@
       <c r="L4" s="131"/>
       <c r="M4" s="131"/>
     </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="140" t="s">
         <v>142</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="140" t="s">
         <v>273</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="143" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="143" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
         <v>274</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K8" s="134"/>
       <c r="L8" s="134"/>
     </row>
@@ -4307,16 +4306,16 @@
       <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="136" t="s">
         <v>146</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
         <v>151</v>
       </c>
@@ -4404,24 +4403,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A0FB90-5508-464E-AD7A-421113AD7D59}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
         <v>154</v>
       </c>
@@ -4501,16 +4500,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>159</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -4530,7 +4529,7 @@
       </c>
       <c r="E3" s="144"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>163</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>1</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>163</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="125" t="s">
         <v>167</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>4</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="124" t="s">
         <v>169</v>
       </c>
@@ -4602,21 +4601,21 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="25" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>266</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>267</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>75</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -4973,21 +4972,21 @@
       <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -5070,17 +5069,17 @@
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5133,18 +5132,18 @@
       <selection activeCell="C2" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5203,19 +5202,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
         <v>268</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>269</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>270</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>271</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>98</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>94</v>
       </c>
@@ -5375,15 +5374,15 @@
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -5430,19 +5429,19 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>108</v>
       </c>
@@ -5492,16 +5491,16 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
         <v>113</v>
       </c>
@@ -5556,6 +5555,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042106007ADEBB2479868B695CD03AA07" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbfd6615ae6f118adf35973df8fc3958">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="760962ba-41a6-4c22-8823-37e7800d07f7" xmlns:ns3="908bafe6-243f-4184-9c59-db357c8fa058" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aaef65b4368acfcf0b150a672790ec2" ns2:_="" ns3:_="">
     <xsd:import namespace="760962ba-41a6-4c22-8823-37e7800d07f7"/>
@@ -5766,15 +5774,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5782,6 +5781,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EE5297-04EB-4C34-AA22-C1F63E596189}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41427505-FAFF-4BEE-B442-0F9294662C13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5800,14 +5807,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EE5297-04EB-4C34-AA22-C1F63E596189}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6352138-94E6-4006-A3A1-D79F276E2A77}">
   <ds:schemaRefs>
